--- a/src/test/resources/excelfile.xlsx
+++ b/src/test/resources/excelfile.xlsx
@@ -77,7 +77,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +91,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,148 +541,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,10 +1016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1101,74 +1094,66 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2736690</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2699700</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>2736690</v>
+        <v>2381741</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>2699700</v>
+        <v>2381741</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>2381741</v>
+        <v>1943945</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>2381741</v>
+        <v>1811569</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>1943945</v>
+        <v>1765050</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>1811569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1765050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
         <v>769632</v>
       </c>
     </row>
